--- a/Generating Flight Mission Cycle/Flight_Mission_Cycle.xlsx
+++ b/Generating Flight Mission Cycle/Flight_Mission_Cycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac.sharepoint.com/teams/SmallJointImplantTestingRig/Shared Documents/General/11 - Code/GDP_47/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac.sharepoint.com/teams/SmallJointImplantTestingRig/Shared Documents/General/11 - Code/GDP_47/Generating Flight Mission Cycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A43B4F40-E765-43F1-9A8D-784BFEF81CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE1262F-E268-4F67-80B2-D42BB392F9D8}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="16080" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DA22312A-0C2A-4384-9D35-840CD7FCF009}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{DA22312A-0C2A-4384-9D35-840CD7FCF009}"/>
   </bookViews>
   <sheets>
     <sheet name="How to use" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,26 +821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a58a784a-84fb-458e-a075-e295952a81e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="685e9b33-d6f8-42eb-aee1-d32c251952d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027F16B06E6E01148813C7ACA97AA34EF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa346ec97cd2b8cb95951b4135646f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a58a784a-84fb-458e-a075-e295952a81e3" xmlns:ns3="685e9b33-d6f8-42eb-aee1-d32c251952d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cdd15de96697d00dd4eeb440d71a501f" ns2:_="" ns3:_="">
     <xsd:import namespace="a58a784a-84fb-458e-a075-e295952a81e3"/>
@@ -1075,26 +1055,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a58a784a-84fb-458e-a075-e295952a81e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="685e9b33-d6f8-42eb-aee1-d32c251952d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B4EB332-C92E-41ED-8CB6-874A3DC7E696}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C7064E-D01D-4C28-8C28-492E65D40FAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a58a784a-84fb-458e-a075-e295952a81e3"/>
-    <ds:schemaRef ds:uri="685e9b33-d6f8-42eb-aee1-d32c251952d0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F12FEC0-8F9C-493A-8210-061C1FAC29C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1111,4 +1092,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C7064E-D01D-4C28-8C28-492E65D40FAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a58a784a-84fb-458e-a075-e295952a81e3"/>
+    <ds:schemaRef ds:uri="685e9b33-d6f8-42eb-aee1-d32c251952d0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B4EB332-C92E-41ED-8CB6-874A3DC7E696}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Generating Flight Mission Cycle/Flight_Mission_Cycle.xlsx
+++ b/Generating Flight Mission Cycle/Flight_Mission_Cycle.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac.sharepoint.com/teams/SmallJointImplantTestingRig/Shared Documents/General/11 - Code/GDP_47/Generating Flight Mission Cycle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A43B4F40-E765-43F1-9A8D-784BFEF81CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE1262F-E268-4F67-80B2-D42BB392F9D8}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{A43B4F40-E765-43F1-9A8D-784BFEF81CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D7F9715-7ACE-47B8-BE12-94DE20AF7041}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{DA22312A-0C2A-4384-9D35-840CD7FCF009}"/>
+    <workbookView xWindow="1650" yWindow="16080" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DA22312A-0C2A-4384-9D35-840CD7FCF009}"/>
   </bookViews>
   <sheets>
     <sheet name="How to use" sheetId="1" r:id="rId1"/>
     <sheet name="Flight Mission Cycle" sheetId="2" r:id="rId2"/>
-    <sheet name="Typing" sheetId="7" r:id="rId3"/>
-    <sheet name="Light switch" sheetId="6" r:id="rId4"/>
-    <sheet name="Piano" sheetId="5" r:id="rId5"/>
-    <sheet name="Writing" sheetId="4" r:id="rId6"/>
+    <sheet name="Example" sheetId="8" r:id="rId3"/>
+    <sheet name="Typing" sheetId="7" r:id="rId4"/>
+    <sheet name="Light switch" sheetId="6" r:id="rId5"/>
+    <sheet name="Piano" sheetId="5" r:id="rId6"/>
+    <sheet name="Writing" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="18">
   <si>
     <t>Setting</t>
   </si>
@@ -70,10 +71,31 @@
     <t>Force</t>
   </si>
   <si>
+    <t>No. of cycles</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>set_points</t>
+  </si>
+  <si>
+    <t>RoM</t>
+  </si>
+  <si>
+    <t>sinosoidal</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>angle _dependent</t>
+  </si>
+  <si>
     <t>Light switch</t>
-  </si>
-  <si>
-    <t>No. of cycles</t>
   </si>
 </sst>
 </file>
@@ -437,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671B1A1-7FE6-4148-92D2-482FECAD7275}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,26 +488,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -494,70 +500,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF68743-A6F3-431E-B235-0E24B6BB11CE}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E381532A-1840-4623-A655-88F3C9273618}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -566,29 +560,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66F4A08-766D-4199-A7AF-6FAC79FAE8C9}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF68743-A6F3-431E-B235-0E24B6BB11CE}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
         <v>0</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -601,41 +601,46 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
       <c r="D3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>-20</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>10</v>
+      <c r="C7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -644,6 +649,101 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66F4A08-766D-4199-A7AF-6FAC79FAE8C9}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F28E5F9-7560-4700-BC16-43CF6FD42907}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -733,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADEC46F-0895-4F6B-9824-3972CAD06C20}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -821,6 +921,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a58a784a-84fb-458e-a075-e295952a81e3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="685e9b33-d6f8-42eb-aee1-d32c251952d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010027F16B06E6E01148813C7ACA97AA34EF" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa346ec97cd2b8cb95951b4135646f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a58a784a-84fb-458e-a075-e295952a81e3" xmlns:ns3="685e9b33-d6f8-42eb-aee1-d32c251952d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cdd15de96697d00dd4eeb440d71a501f" ns2:_="" ns3:_="">
     <xsd:import namespace="a58a784a-84fb-458e-a075-e295952a81e3"/>
@@ -1055,27 +1175,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a58a784a-84fb-458e-a075-e295952a81e3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="685e9b33-d6f8-42eb-aee1-d32c251952d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B4EB332-C92E-41ED-8CB6-874A3DC7E696}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C7064E-D01D-4C28-8C28-492E65D40FAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a58a784a-84fb-458e-a075-e295952a81e3"/>
+    <ds:schemaRef ds:uri="685e9b33-d6f8-42eb-aee1-d32c251952d0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F12FEC0-8F9C-493A-8210-061C1FAC29C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1092,23 +1211,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6C7064E-D01D-4C28-8C28-492E65D40FAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a58a784a-84fb-458e-a075-e295952a81e3"/>
-    <ds:schemaRef ds:uri="685e9b33-d6f8-42eb-aee1-d32c251952d0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B4EB332-C92E-41ED-8CB6-874A3DC7E696}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>